--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,187 +43,163 @@
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
@@ -584,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,37 +679,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -753,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.96</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
         <v>29</v>
@@ -845,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5833333333333334</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,45 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,395 +1197,203 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L15">
+        <v>92</v>
+      </c>
+      <c r="M15">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L16">
+        <v>104</v>
+      </c>
+      <c r="M16">
+        <v>104</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.70625</v>
+      </c>
+      <c r="L17">
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>113</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L18">
+        <v>74</v>
+      </c>
+      <c r="M18">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L19">
         <v>42</v>
       </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="M19">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L20">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>16</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L17">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L18">
-        <v>8</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3218884120171674</v>
-      </c>
-      <c r="C19">
-        <v>75</v>
-      </c>
-      <c r="D19">
-        <v>75</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>158</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
-        <v>0.72</v>
-      </c>
-      <c r="L19">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>18</v>
       </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.25</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L20">
-        <v>52</v>
-      </c>
-      <c r="M20">
-        <v>52</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>67</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
+    </row>
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7068965517241379</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1648,42 +1408,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>179</v>
-      </c>
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6923076923076923</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5774647887323944</v>
+        <v>0.5561357702349869</v>
       </c>
       <c r="L24">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="M24">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1750,18 +1486,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1776,18 +1512,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5428571428571428</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5208333333333334</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,48 +1613,48 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5151515151515151</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L31">
+        <v>125</v>
+      </c>
+      <c r="M31">
+        <v>125</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>0.3953488372093023</v>
+      </c>
+      <c r="L32">
         <v>17</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>17</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32">
-        <v>0.5038759689922481</v>
-      </c>
-      <c r="L32">
-        <v>65</v>
-      </c>
-      <c r="M32">
-        <v>65</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -1929,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4782608695652174</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>0.325</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.44</v>
+        <v>0.3125</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3684210526315789</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.35</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3125</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.2894736842105263</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2111,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.2162162162162162</v>
+        <v>0.03125</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.01951219512195122</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2163,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>402</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.01643192488262911</v>
+        <v>0.01901565995525727</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2189,33 +1925,85 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>419</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.007136485280999108</v>
+        <v>0.01499423298731257</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1113</v>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44">
+        <v>0.009980682549903412</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>0.008407286314806165</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>0.9</v>
+      </c>
+      <c r="O45">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2123</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -85,124 +88,124 @@
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>share</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,16 +703,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6232876712328768</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5862068965517241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,16 +803,16 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2266666666666667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2151162790697674</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.164021164021164</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1140939597315436</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05952380952380952</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,21 +1174,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.05158730158730158</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>239</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7666666666666667</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7323943661971831</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.7125</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6981132075471698</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L18">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6595744680851063</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,12 +1380,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>0.6470588235294118</v>
@@ -1384,16 +1411,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6382978723404256</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5561357702349869</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1483,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,12 +1536,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>0.52</v>
@@ -1540,16 +1567,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4647058823529412</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L29">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M29">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4444444444444444</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,47 +1640,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L31">
+        <v>41</v>
+      </c>
+      <c r="M31">
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>48</v>
-      </c>
-      <c r="K31">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L31">
-        <v>125</v>
-      </c>
-      <c r="M31">
-        <v>125</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>170</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.3953488372093023</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.3598326359832636</v>
+        <v>0.425</v>
       </c>
       <c r="L33">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>153</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.325</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1717,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3125</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1743,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3076923076923077</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1769,47 +1796,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3013698630136986</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L37">
+        <v>13</v>
+      </c>
+      <c r="M37">
+        <v>13</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.2461538461538462</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1821,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.1805555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1847,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.03125</v>
+        <v>0.2</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1873,15 +1900,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>403</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.02108768035516093</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -1899,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>882</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.01901565995525727</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1925,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>877</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.01499423298731257</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1951,59 +1978,59 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>854</v>
+        <v>884</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.009980682549903412</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3075</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.008407286314806165</v>
+        <v>0.006443298969072165</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N45">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="O45">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2123</v>
+        <v>3084</v>
       </c>
     </row>
   </sheetData>
